--- a/ct/Test 1.xlsx
+++ b/ct/Test 1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amans\Desktop\Anudip\Test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97874BE3-3980-43C1-B80A-1C58371CC5FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5C0734D-EFD6-4919-BB61-A6A74AAB2E36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -464,9 +464,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -483,6 +480,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1111,8 +1109,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:I20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1288,9 +1286,9 @@
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
-      <c r="E14" s="25">
-        <f ca="1">SUMIF(A2:D11,E2,G2:G11)</f>
-        <v>0</v>
+      <c r="E14" s="33">
+        <f ca="1">SUMIF(E2:G11,E2,G2:G11)</f>
+        <v>3600</v>
       </c>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
@@ -1306,7 +1304,7 @@
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
-      <c r="E15" s="26">
+      <c r="E15" s="25">
         <f>AVERAGEIF(F2:F11,F3,G2:G11)</f>
         <v>1500</v>
       </c>
@@ -1636,7 +1634,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64974935-22EE-4B54-BCA1-561E390D7258}">
   <dimension ref="B1:O13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
@@ -1660,7 +1658,7 @@
       <c r="O2" s="4"/>
     </row>
     <row r="3" spans="2:15" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="26" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -1685,171 +1683,171 @@
       <c r="O3" s="5"/>
     </row>
     <row r="4" spans="2:15" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B4" s="28">
+      <c r="B4" s="27">
         <v>45292</v>
       </c>
-      <c r="C4" s="29" t="str">
+      <c r="C4" s="28" t="str">
         <f>VLOOKUP(B4,Sheet1!D1:G11,2,0)</f>
         <v>Product A</v>
       </c>
-      <c r="D4" s="29" t="str">
+      <c r="D4" s="28" t="str">
         <f>VLOOKUP(C4,Sheet1!E1:H11,2,0)</f>
         <v>North</v>
       </c>
-      <c r="E4" s="30">
+      <c r="E4" s="29">
         <f>VLOOKUP(D4,Sheet1!F1:I11,2,0)</f>
         <v>1200</v>
       </c>
     </row>
     <row r="5" spans="2:15" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B5" s="28">
+      <c r="B5" s="27">
         <v>45293</v>
       </c>
-      <c r="C5" s="29" t="str">
+      <c r="C5" s="28" t="str">
         <f>VLOOKUP(B5,Sheet1!D2:G12,2,0)</f>
         <v>Product B</v>
       </c>
-      <c r="D5" s="29" t="str">
+      <c r="D5" s="28" t="str">
         <f>VLOOKUP(C5,Sheet1!E2:H12,2,0)</f>
         <v>South</v>
       </c>
-      <c r="E5" s="30">
+      <c r="E5" s="29">
         <f>VLOOKUP(D5,Sheet1!F2:I12,2,0)</f>
         <v>1500</v>
       </c>
     </row>
     <row r="6" spans="2:15" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B6" s="28">
+      <c r="B6" s="27">
         <v>45294</v>
       </c>
-      <c r="C6" s="29" t="str">
+      <c r="C6" s="28" t="str">
         <f>VLOOKUP(B6,Sheet1!D3:G13,2,0)</f>
         <v>Product C</v>
       </c>
-      <c r="D6" s="29" t="str">
+      <c r="D6" s="28" t="str">
         <f>VLOOKUP(C6,Sheet1!E3:H13,2,0)</f>
         <v>East</v>
       </c>
-      <c r="E6" s="30">
+      <c r="E6" s="29">
         <f>VLOOKUP(D6,Sheet1!F3:I13,2,0)</f>
         <v>800</v>
       </c>
     </row>
     <row r="7" spans="2:15" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B7" s="28">
+      <c r="B7" s="27">
         <v>45295</v>
       </c>
-      <c r="C7" s="29" t="str">
+      <c r="C7" s="28" t="str">
         <f>VLOOKUP(B7,Sheet1!D4:G14,2,0)</f>
         <v>Product D</v>
       </c>
-      <c r="D7" s="29" t="str">
+      <c r="D7" s="28" t="str">
         <f>VLOOKUP(C7,Sheet1!E4:H14,2,0)</f>
         <v>West</v>
       </c>
-      <c r="E7" s="30">
+      <c r="E7" s="29">
         <f>VLOOKUP(D7,Sheet1!F4:I14,2,0)</f>
         <v>700</v>
       </c>
     </row>
     <row r="8" spans="2:15" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B8" s="28">
+      <c r="B8" s="27">
         <v>45296</v>
       </c>
-      <c r="C8" s="29" t="str">
+      <c r="C8" s="28" t="str">
         <f>VLOOKUP(B8,Sheet1!D5:G15,2,0)</f>
         <v>Product A</v>
       </c>
-      <c r="D8" s="29" t="str">
+      <c r="D8" s="28" t="str">
         <f>VLOOKUP(C8,Sheet1!E5:H15,2,0)</f>
         <v>North</v>
       </c>
-      <c r="E8" s="30">
+      <c r="E8" s="29">
         <f>VLOOKUP(D8,Sheet1!F5:I15,2,0)</f>
         <v>1100</v>
       </c>
     </row>
     <row r="9" spans="2:15" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B9" s="28">
+      <c r="B9" s="27">
         <v>45297</v>
       </c>
-      <c r="C9" s="29" t="str">
+      <c r="C9" s="28" t="str">
         <f>VLOOKUP(B9,Sheet1!D6:G16,2,0)</f>
         <v>Product B</v>
       </c>
-      <c r="D9" s="29" t="str">
+      <c r="D9" s="28" t="str">
         <f>VLOOKUP(C9,Sheet1!E6:H16,2,0)</f>
         <v>South</v>
       </c>
-      <c r="E9" s="30">
+      <c r="E9" s="29">
         <f>VLOOKUP(D9,Sheet1!F6:I16,2,0)</f>
         <v>1400</v>
       </c>
     </row>
     <row r="10" spans="2:15" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B10" s="28">
+      <c r="B10" s="27">
         <v>45298</v>
       </c>
-      <c r="C10" s="29" t="str">
+      <c r="C10" s="28" t="str">
         <f>VLOOKUP(B10,Sheet1!D7:G17,2,0)</f>
         <v>Product C</v>
       </c>
-      <c r="D10" s="29" t="str">
+      <c r="D10" s="28" t="str">
         <f>VLOOKUP(C10,Sheet1!E7:H17,2,0)</f>
         <v>East</v>
       </c>
-      <c r="E10" s="30">
+      <c r="E10" s="29">
         <f>VLOOKUP(D10,Sheet1!F7:I17,2,0)</f>
         <v>900</v>
       </c>
     </row>
     <row r="11" spans="2:15" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B11" s="28">
+      <c r="B11" s="27">
         <v>45299</v>
       </c>
-      <c r="C11" s="29" t="str">
+      <c r="C11" s="28" t="str">
         <f>VLOOKUP(B11,Sheet1!D8:G18,2,0)</f>
         <v>Product D</v>
       </c>
-      <c r="D11" s="29" t="str">
+      <c r="D11" s="28" t="str">
         <f>VLOOKUP(C11,Sheet1!E8:H18,2,0)</f>
         <v>West</v>
       </c>
-      <c r="E11" s="30">
+      <c r="E11" s="29">
         <f>VLOOKUP(D11,Sheet1!F8:I18,2,0)</f>
         <v>850</v>
       </c>
     </row>
     <row r="12" spans="2:15" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B12" s="28">
+      <c r="B12" s="27">
         <v>45300</v>
       </c>
-      <c r="C12" s="29" t="str">
+      <c r="C12" s="28" t="str">
         <f>VLOOKUP(B12,Sheet1!D9:G19,2,0)</f>
         <v>Product A</v>
       </c>
-      <c r="D12" s="29" t="str">
+      <c r="D12" s="28" t="str">
         <f>VLOOKUP(C12,Sheet1!E9:H19,2,0)</f>
         <v>North</v>
       </c>
-      <c r="E12" s="30">
+      <c r="E12" s="29">
         <f>VLOOKUP(D12,Sheet1!F9:I19,2,0)</f>
         <v>1300</v>
       </c>
     </row>
     <row r="13" spans="2:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="31">
+      <c r="B13" s="30">
         <v>45301</v>
       </c>
-      <c r="C13" s="32" t="str">
+      <c r="C13" s="31" t="str">
         <f>VLOOKUP(B13,Sheet1!D10:G20,2,0)</f>
         <v>Product B</v>
       </c>
-      <c r="D13" s="32" t="str">
+      <c r="D13" s="31" t="str">
         <f>VLOOKUP(C13,Sheet1!E10:H20,2,0)</f>
         <v>South</v>
       </c>
-      <c r="E13" s="33">
+      <c r="E13" s="32">
         <f>VLOOKUP(D13,Sheet1!F10:I20,2,0)</f>
         <v>1600</v>
       </c>
